--- a/test_result_data/hasil_uji_2.xlsx
+++ b/test_result_data/hasil_uji_2.xlsx
@@ -528,21 +528,21 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.04545455 1.        ]</t>
+          <t>[0.         0.98333333]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[1.        0.6440678]</t>
+          <t>[0. 1.]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.08695652 0.78350515]</t>
+          <t>[0.         0.99159664]</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.65</v>
+        <v>0.9833333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -556,21 +556,21 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[0.         0.98076923]</t>
+          <t>[0.   0.98]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[0.         0.86440678]</t>
+          <t>[0.         0.83050847]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.         0.91891892]</t>
+          <t>[0.         0.89908257]</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.85</v>
+        <v>0.8166666666666667</v>
       </c>
     </row>
     <row r="6">

--- a/test_result_data/hasil_uji_2.xlsx
+++ b/test_result_data/hasil_uji_2.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Presisi</t>
+          <t>Precision</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -470,20 +470,14 @@
           <t>Naive Bayes</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.         0.98333333]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[0. 1.]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0.         0.99159664]</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9915966386554621</v>
       </c>
       <c r="F2" t="n">
         <v>0.9833333333333333</v>
@@ -498,20 +492,14 @@
           <t>Support Vector Machine</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[0.         0.98333333]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[0. 1.]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0.         0.99159664]</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9915966386554621</v>
       </c>
       <c r="F3" t="n">
         <v>0.9833333333333333</v>
@@ -526,23 +514,17 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[0.         0.98333333]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[0. 1.]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[0.         0.99159664]</t>
-        </is>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6440677966101694</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7835051546391751</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9833333333333333</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="5">
@@ -554,23 +536,17 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[0.   0.98]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[0.         0.83050847]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0.         0.89908257]</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0.9807692307692307</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.864406779661017</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.918918918918919</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6">
@@ -582,23 +558,17 @@
           <t>Random Forest</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[0.         0.98076923]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[0.         0.86440678]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[0.         0.91891892]</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0.9782608695652174</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7627118644067796</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.857142857142857</v>
       </c>
       <c r="F6" t="n">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/test_result_data/hasil_uji_2.xlsx
+++ b/test_result_data/hasil_uji_2.xlsx
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9782608695652174</v>
+        <v>0.9814814814814815</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7627118644067796</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="E6" t="n">
-        <v>0.857142857142857</v>
+        <v>0.9380530973451328</v>
       </c>
       <c r="F6" t="n">
-        <v>0.75</v>
+        <v>0.8833333333333333</v>
       </c>
     </row>
   </sheetData>
